--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
@@ -55,19 +55,19 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>AREPD</t>
   </si>
   <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.6266411458939485</v>
+        <v>0.605961835027105</v>
       </c>
       <c r="C2">
-        <v>0.540225314542278</v>
+        <v>0.542188763813234</v>
       </c>
       <c r="D2">
-        <v>0.3842792794658789</v>
+        <v>0.3379180009810501</v>
       </c>
       <c r="E2">
-        <v>0.6132365900066727</v>
+        <v>0.5576555839790386</v>
       </c>
       <c r="F2">
-        <v>0.2228751898708555</v>
+        <v>0.2156154534938366</v>
       </c>
       <c r="G2">
-        <v>3.352298133835755</v>
+        <v>3.784699268962683</v>
       </c>
       <c r="H2">
-        <v>0.374490992601661</v>
+        <v>0.3652154274888001</v>
       </c>
       <c r="I2">
-        <v>0.9460330760849374</v>
+        <v>0.906637855982743</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.6404604772955071</v>
+        <v>0.6172670560654613</v>
       </c>
       <c r="C3">
-        <v>0.5686293617252577</v>
+        <v>0.5407251082964886</v>
       </c>
       <c r="D3">
-        <v>0.3747097272226578</v>
+        <v>0.3705321181810521</v>
       </c>
       <c r="E3">
-        <v>0.5850629984303738</v>
+        <v>0.600278460578912</v>
       </c>
       <c r="F3">
-        <v>0.2198999593980623</v>
+        <v>0.2095574098285135</v>
       </c>
       <c r="G3">
-        <v>2.85853248004857</v>
+        <v>3.635311028779202</v>
       </c>
       <c r="H3">
-        <v>0.3802823483860931</v>
+        <v>0.3541642592414305</v>
       </c>
       <c r="I3">
-        <v>0.9413145129447953</v>
+        <v>0.9038352503180973</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6615292813969161</v>
+        <v>0.6296112109136516</v>
       </c>
       <c r="C4">
-        <v>0.5565128451962136</v>
+        <v>0.5471480253257434</v>
       </c>
       <c r="D4">
-        <v>0.4102330896475195</v>
+        <v>0.3807847243275277</v>
       </c>
       <c r="E4">
-        <v>0.6201283921722287</v>
+        <v>0.6047934308141643</v>
       </c>
       <c r="F4">
-        <v>0.2220257873797375</v>
+        <v>0.2075327905730808</v>
       </c>
       <c r="G4">
-        <v>3.308770990621317</v>
+        <v>5.66686217614076</v>
       </c>
       <c r="H4">
-        <v>0.385456355964009</v>
+        <v>0.3755076782079431</v>
       </c>
       <c r="I4">
-        <v>0.9552916520995194</v>
+        <v>0.9165195339028782</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.6791407632310854</v>
+        <v>0.6561263639434662</v>
       </c>
       <c r="C5">
-        <v>0.5560968139957482</v>
+        <v>0.5556130701098317</v>
       </c>
       <c r="D5">
-        <v>0.4334540854743835</v>
+        <v>0.4400207283635686</v>
       </c>
       <c r="E5">
-        <v>0.6382389468306673</v>
+        <v>0.6706341225475922</v>
       </c>
       <c r="F5">
-        <v>0.2232145016956847</v>
+        <v>0.2079542034971669</v>
       </c>
       <c r="G5">
-        <v>3.216904202526817</v>
+        <v>5.835669770348471</v>
       </c>
       <c r="H5">
-        <v>0.3694312164826583</v>
+        <v>0.3775087543667384</v>
       </c>
       <c r="I5">
-        <v>0.9695464441050541</v>
+        <v>0.9334118129881661</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7156707932082101</v>
+        <v>0.6676294084403145</v>
       </c>
       <c r="C6">
-        <v>0.5791086002243423</v>
+        <v>0.5604485817233156</v>
       </c>
       <c r="D6">
-        <v>0.4683483335983165</v>
+        <v>0.4502768348492996</v>
       </c>
       <c r="E6">
-        <v>0.6544186769154067</v>
+        <v>0.6744412830783112</v>
       </c>
       <c r="F6">
-        <v>0.2198407602748396</v>
+        <v>0.2143272785000574</v>
       </c>
       <c r="G6">
-        <v>3.426618923655694</v>
+        <v>6.037530347025116</v>
       </c>
       <c r="H6">
-        <v>0.3986333543682066</v>
+        <v>0.378784175623738</v>
       </c>
       <c r="I6">
-        <v>1.003230518689632</v>
+        <v>0.9402168912681709</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.7175246340748288</v>
+        <v>0.6725238171670227</v>
       </c>
       <c r="C7">
-        <v>0.5810279467340077</v>
+        <v>0.5718512935696594</v>
       </c>
       <c r="D7">
-        <v>0.4809552329205595</v>
+        <v>0.407868922560744</v>
       </c>
       <c r="E7">
-        <v>0.6702978686448861</v>
+        <v>0.6064750602868967</v>
       </c>
       <c r="F7">
-        <v>0.2233326774175465</v>
+        <v>0.2167813049927058</v>
       </c>
       <c r="G7">
-        <v>3.946939739968221</v>
+        <v>5.307432948678181</v>
       </c>
       <c r="H7">
-        <v>0.4031835382123725</v>
+        <v>0.3864619093883406</v>
       </c>
       <c r="I7">
-        <v>0.9738979508253638</v>
+        <v>0.9644506424254262</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.7240299305229702</v>
+        <v>0.6832604754996421</v>
       </c>
       <c r="C8">
-        <v>0.5596638666457101</v>
+        <v>0.584870315196785</v>
       </c>
       <c r="D8">
-        <v>0.5173431133660477</v>
+        <v>0.4013307584341917</v>
       </c>
       <c r="E8">
-        <v>0.7145327721360474</v>
+        <v>0.587375931764111</v>
       </c>
       <c r="F8">
-        <v>0.2223332330044308</v>
+        <v>0.2192335534562175</v>
       </c>
       <c r="G8">
-        <v>3.99227573147666</v>
+        <v>3.36582225741778</v>
       </c>
       <c r="H8">
-        <v>0.3770645002246013</v>
+        <v>0.3949327649796566</v>
       </c>
       <c r="I8">
-        <v>1.001169962331798</v>
+        <v>0.9763823835353855</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.7447845475734969</v>
+        <v>0.6859773021489359</v>
       </c>
       <c r="C9">
-        <v>0.5955202188381719</v>
+        <v>0.5782336773018021</v>
       </c>
       <c r="D9">
-        <v>0.5057620963938309</v>
+        <v>0.435373473814376</v>
       </c>
       <c r="E9">
-        <v>0.6790716832694776</v>
+        <v>0.6346762093301009</v>
       </c>
       <c r="F9">
-        <v>0.2304849928288061</v>
+        <v>0.2255423108719403</v>
       </c>
       <c r="G9">
-        <v>3.746078918771446</v>
+        <v>5.296232747122624</v>
       </c>
       <c r="H9">
-        <v>0.4169786845279673</v>
+        <v>0.3943124085271161</v>
       </c>
       <c r="I9">
-        <v>1.025131684539836</v>
+        <v>0.9606559187947303</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.8972757458314203</v>
+        <v>0.7035325516363372</v>
       </c>
       <c r="C10">
-        <v>0.7696881681237312</v>
+        <v>0.6025152471606123</v>
       </c>
       <c r="D10">
-        <v>0.4932639113400446</v>
+        <v>0.4136772530445452</v>
       </c>
       <c r="E10">
-        <v>0.5497350325489783</v>
+        <v>0.5880001601665461</v>
       </c>
       <c r="F10">
-        <v>0.3218825598097131</v>
+        <v>0.2192035124292709</v>
       </c>
       <c r="G10">
-        <v>3.128112992910914</v>
+        <v>3.888311578793533</v>
       </c>
       <c r="H10">
-        <v>0.5123478686727909</v>
+        <v>0.411484283224826</v>
       </c>
       <c r="I10">
-        <v>1.325819930336646</v>
+        <v>0.9798619555908921</v>
       </c>
     </row>
   </sheetData>
